--- a/INTLINE/data/144/SCB/old/NR0103ENS2010T07Kv.xlsx
+++ b/INTLINE/data/144/SCB/old/NR0103ENS2010T07Kv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <x:si>
     <x:t>Gross fixed capital formation (ESA2010) by industrial classification NACE Rev. 2, observations and quarter</x:t>
   </x:si>
@@ -520,6 +520,9 @@
     <x:t>2021K3</x:t>
   </x:si>
   <x:si>
+    <x:t>2021K4</x:t>
+  </x:si>
+  <x:si>
     <x:t>F41-F43 construction</x:t>
   </x:si>
   <x:si>
@@ -547,7 +550,7 @@
     <x:t>Current prices, SEK million:</x:t>
   </x:si>
   <x:si>
-    <x:t>20211129 09:30</x:t>
+    <x:t>20220228 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Constant prices referece year 2020, SEK million:</x:t>
@@ -622,7 +625,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="1" formatCode="0"/>
+    <x:numFmt numFmtId="165" formatCode="0"/>
   </x:numFmts>
   <x:fonts count="3">
     <x:font>
@@ -676,48 +679,42 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="6">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+  <x:cellStyleXfs count="4">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="6">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -728,7 +725,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -1011,27 +1008,26 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:FM64"/>
+  <x:dimension ref="A1:FN64"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="2" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="3" max="169" width="9.130625" style="0" customWidth="1"/>
+    <x:col min="1" max="170" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:169">
+    <x:row r="1" spans="1:170">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:169">
+    <x:row r="3" spans="1:170">
       <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -1533,169 +1529,172 @@
       <x:c r="FM3" s="2" t="s">
         <x:v>167</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:169">
+      <x:c r="FN3" s="2" t="s">
+        <x:v>168</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:170">
       <x:c r="A4" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="E4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="G4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="H4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="I4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="J4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="K4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="L4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="M4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="N4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="O4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="P4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="Q4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="R4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="S4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="T4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="U4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="V4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="W4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="X4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="Y4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="Z4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AA4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AB4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AC4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AD4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AE4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AF4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AG4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AH4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AI4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AJ4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AK4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AL4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AM4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AN4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AO4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AP4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AQ4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AR4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AS4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AT4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AU4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AV4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AW4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AX4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AY4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AZ4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="BA4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="BB4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="BC4" s="4" t="n">
         <x:v>1171</x:v>
@@ -2034,174 +2033,177 @@
         <x:v>6005</x:v>
       </x:c>
       <x:c r="FK4" s="4" t="n">
-        <x:v>8256</x:v>
+        <x:v>9021</x:v>
       </x:c>
       <x:c r="FL4" s="4" t="n">
-        <x:v>8047</x:v>
+        <x:v>8400</x:v>
       </x:c>
       <x:c r="FM4" s="4" t="n">
-        <x:v>6978</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:169">
+        <x:v>7074</x:v>
+      </x:c>
+      <x:c r="FN4" s="4" t="n">
+        <x:v>7234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:170">
       <x:c r="B5" s="2" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="K5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="L5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="M5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="N5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="O5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="P5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="Q5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="R5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="S5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="T5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="U5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="V5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="W5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="X5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="Y5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="Z5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AA5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AB5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AC5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AD5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AE5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AF5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AG5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AH5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AI5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AJ5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AK5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AL5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AM5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AN5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AO5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AP5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AQ5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AR5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AS5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AT5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AU5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AV5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AW5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AX5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AY5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AZ5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="BA5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="BB5" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="BC5" s="4" t="n">
         <x:v>1857</x:v>
@@ -2540,235 +2542,234 @@
         <x:v>6046</x:v>
       </x:c>
       <x:c r="FK5" s="4" t="n">
-        <x:v>8317</x:v>
+        <x:v>9092</x:v>
       </x:c>
       <x:c r="FL5" s="4" t="n">
-        <x:v>8026</x:v>
+        <x:v>8376</x:v>
       </x:c>
       <x:c r="FM5" s="4" t="n">
-        <x:v>6810</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:169">
+        <x:v>6905</x:v>
+      </x:c>
+      <x:c r="FN5" s="4" t="n">
+        <x:v>6996</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:170">
       <x:c r="A7" s="5" t="s">
+        <x:v>173</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:170">
+      <x:c r="A8" s="5" t="s">
+        <x:v>174</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:170">
+      <x:c r="A9" s="5" t="s">
+        <x:v>175</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:170">
+      <x:c r="A11" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:170">
+      <x:c r="A12" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:170">
+      <x:c r="A13" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:170">
+      <x:c r="A14" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:170">
+      <x:c r="A15" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:170">
+      <x:c r="A17" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:170">
+      <x:c r="A18" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:170">
+      <x:c r="A20" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:170">
+      <x:c r="A21" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:170">
+      <x:c r="A22" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:170">
+      <x:c r="A23" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:170">
+      <x:c r="A24" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:170">
+      <x:c r="A26" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:170">
+      <x:c r="A27" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:170">
+      <x:c r="A28" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:170">
+      <x:c r="A33" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:170">
+      <x:c r="A34" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:170">
+      <x:c r="A35" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:170">
+      <x:c r="A36" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:170">
+      <x:c r="A37" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:170">
+      <x:c r="A38" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:170">
+      <x:c r="A39" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:170">
+      <x:c r="A40" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:170">
+      <x:c r="A41" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:170">
+      <x:c r="A42" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:170">
+      <x:c r="A44" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:170">
+      <x:c r="A45" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:170">
+      <x:c r="A46" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:170">
+      <x:c r="A47" s="0" t="s">
         <x:v>172</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:169">
-      <x:c r="A8" s="5" t="s">
-        <x:v>173</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:169">
-      <x:c r="A9" s="5" t="s">
-        <x:v>174</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:169">
-      <x:c r="A11" s="0" t="s">
-        <x:v>175</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:169">
-      <x:c r="A12" s="0" t="s">
-        <x:v>176</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:169">
-      <x:c r="A13" s="0" t="s">
+    <x:row r="48" spans="1:170">
+      <x:c r="A48" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:170">
+      <x:c r="A51" s="0" t="s">
         <x:v>177</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:169">
-      <x:c r="A14" s="0" t="s">
-        <x:v>178</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:169">
-      <x:c r="A15" s="0" t="s">
-        <x:v>177</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:169">
-      <x:c r="A17" s="0" t="s">
+    <x:row r="52" spans="1:170">
+      <x:c r="A52" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:170">
+      <x:c r="A53" s="0" t="s">
         <x:v>179</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:169">
-      <x:c r="A18" s="0" t="s">
-        <x:v>180</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:169">
-      <x:c r="A20" s="0" t="s">
-        <x:v>181</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:169">
-      <x:c r="A21" s="0" t="s">
-        <x:v>176</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:169">
-      <x:c r="A22" s="0" t="s">
-        <x:v>182</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:169">
-      <x:c r="A23" s="0" t="s">
-        <x:v>183</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:169">
-      <x:c r="A24" s="0" t="s">
-        <x:v>184</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:169">
-      <x:c r="A25" s="0" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:169">
-      <x:c r="A26" s="0" t="s">
-        <x:v>185</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:169">
-      <x:c r="A27" s="0" t="s">
-        <x:v>183</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:169">
-      <x:c r="A28" s="0" t="s">
-        <x:v>186</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:169">
-      <x:c r="A29" s="0" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:169">
-      <x:c r="A30" s="0" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:169">
-      <x:c r="A33" s="0" t="s">
-        <x:v>187</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:169">
-      <x:c r="A34" s="0" t="s">
-        <x:v>176</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:169">
-      <x:c r="A35" s="0" t="s">
-        <x:v>188</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:169">
-      <x:c r="A36" s="0" t="s">
-        <x:v>178</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:169">
-      <x:c r="A37" s="0" t="s">
-        <x:v>188</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:169">
-      <x:c r="A38" s="0" t="s">
-        <x:v>189</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:169">
-      <x:c r="A39" s="0" t="s">
-        <x:v>176</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:169">
-      <x:c r="A40" s="0" t="s">
-        <x:v>190</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:169">
-      <x:c r="A41" s="0" t="s">
-        <x:v>178</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:169">
-      <x:c r="A42" s="0" t="s">
-        <x:v>190</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:169">
-      <x:c r="A44" s="0" t="s">
-        <x:v>191</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:169">
-      <x:c r="A45" s="0" t="s">
-        <x:v>169</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="1:169">
-      <x:c r="A46" s="0" t="s">
-        <x:v>192</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:169">
-      <x:c r="A47" s="0" t="s">
-        <x:v>171</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="1:169">
-      <x:c r="A48" s="0" t="s">
-        <x:v>192</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="51" spans="1:169">
-      <x:c r="A51" s="0" t="s">
-        <x:v>176</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:169">
-      <x:c r="A52" s="0" t="s">
-        <x:v>193</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:169">
-      <x:c r="A53" s="0" t="s">
-        <x:v>178</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54" spans="1:169">
+    <x:row r="54" spans="1:170">
       <x:c r="A54" s="0" t="s">
-        <x:v>194</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="58" spans="1:169">
+        <x:v>195</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:170">
       <x:c r="A58" s="0" t="s">
-        <x:v>195</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="60" spans="1:169">
+        <x:v>196</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:170">
       <x:c r="A60" s="0" t="s">
-        <x:v>196</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="61" spans="1:169">
+        <x:v>197</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:170">
       <x:c r="A61" s="0" t="s">
-        <x:v>197</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="63" spans="1:169">
+        <x:v>198</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:170">
       <x:c r="A63" s="0" t="s">
-        <x:v>198</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="64" spans="1:169">
+        <x:v>199</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:170">
       <x:c r="A64" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="3">
+    <x:mergeCell ref="A7:FN7"/>
+    <x:mergeCell ref="A8:FN8"/>
+    <x:mergeCell ref="A9:FN9"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
